--- a/data/pca/factorExposure/factorExposure_2011-10-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-10-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.0141405079344687</v>
+        <v>0.01489697068000093</v>
       </c>
       <c r="C2">
-        <v>0.03531431092547348</v>
+        <v>3.370698323591939e-05</v>
       </c>
       <c r="D2">
-        <v>-0.01898576352218296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.0339530099647067</v>
+      </c>
+      <c r="E2">
+        <v>0.003869730084723745</v>
+      </c>
+      <c r="F2">
+        <v>-0.0391121079991321</v>
+      </c>
+      <c r="G2">
+        <v>-0.01486841581400238</v>
+      </c>
+      <c r="H2">
+        <v>0.012321581358152</v>
+      </c>
+      <c r="I2">
+        <v>-0.01387215403668837</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.07621306082902773</v>
+        <v>0.09172202877163844</v>
       </c>
       <c r="C4">
-        <v>0.05988187951002935</v>
+        <v>0.04289314722659404</v>
       </c>
       <c r="D4">
-        <v>-0.08160111430676956</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.07630787581579912</v>
+      </c>
+      <c r="E4">
+        <v>-0.02713663362095514</v>
+      </c>
+      <c r="F4">
+        <v>-0.05436584673619948</v>
+      </c>
+      <c r="G4">
+        <v>0.02651675907986175</v>
+      </c>
+      <c r="H4">
+        <v>-0.01113801256643198</v>
+      </c>
+      <c r="I4">
+        <v>0.07404623682575198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.1143958646165941</v>
+        <v>0.1279257854822764</v>
       </c>
       <c r="C6">
-        <v>0.04832556529327666</v>
+        <v>-0.00285193711266839</v>
       </c>
       <c r="D6">
-        <v>-0.01317405217277046</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.03876021149267542</v>
+      </c>
+      <c r="E6">
+        <v>0.02572151472309284</v>
+      </c>
+      <c r="F6">
+        <v>-0.03240643375431067</v>
+      </c>
+      <c r="G6">
+        <v>0.04989098203859373</v>
+      </c>
+      <c r="H6">
+        <v>0.1769527663456835</v>
+      </c>
+      <c r="I6">
+        <v>0.02528340251679246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.06451298927027369</v>
+        <v>0.06831100225753094</v>
       </c>
       <c r="C7">
-        <v>0.04726711866897234</v>
+        <v>0.03842747338644138</v>
       </c>
       <c r="D7">
-        <v>-0.03407556705551279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05240190242784665</v>
+      </c>
+      <c r="E7">
+        <v>-0.005790682978004582</v>
+      </c>
+      <c r="F7">
+        <v>-0.05718452593456966</v>
+      </c>
+      <c r="G7">
+        <v>-0.01868000327390573</v>
+      </c>
+      <c r="H7">
+        <v>-0.01485705364710865</v>
+      </c>
+      <c r="I7">
+        <v>0.03459708955587155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.04312795005868762</v>
+        <v>0.04348018427287111</v>
       </c>
       <c r="C8">
-        <v>-0.0008884305393889167</v>
+        <v>0.02745726224511011</v>
       </c>
       <c r="D8">
-        <v>-0.06164204933275201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.009857225617088031</v>
+      </c>
+      <c r="E8">
+        <v>-0.0308770648087572</v>
+      </c>
+      <c r="F8">
+        <v>-0.07206452492515064</v>
+      </c>
+      <c r="G8">
+        <v>0.04741770959337907</v>
+      </c>
+      <c r="H8">
+        <v>0.02295805738846131</v>
+      </c>
+      <c r="I8">
+        <v>0.11243522734114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0721794854709666</v>
+        <v>0.08283695881961575</v>
       </c>
       <c r="C9">
-        <v>0.04262539657270394</v>
+        <v>0.04402817338179289</v>
       </c>
       <c r="D9">
-        <v>-0.0759654169498013</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.05927095640662825</v>
+      </c>
+      <c r="E9">
+        <v>-0.02917236368488023</v>
+      </c>
+      <c r="F9">
+        <v>-0.05122921081118846</v>
+      </c>
+      <c r="G9">
+        <v>0.04070925559005163</v>
+      </c>
+      <c r="H9">
+        <v>-0.01722724242544017</v>
+      </c>
+      <c r="I9">
+        <v>0.07651661560107453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02355943509826836</v>
+        <v>0.05999489122958332</v>
       </c>
       <c r="C10">
-        <v>0.02266676089695119</v>
+        <v>-0.1936326483265362</v>
       </c>
       <c r="D10">
-        <v>0.1752021979211794</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.03452544688096888</v>
+      </c>
+      <c r="E10">
+        <v>0.004550229708489757</v>
+      </c>
+      <c r="F10">
+        <v>-0.05384070406254132</v>
+      </c>
+      <c r="G10">
+        <v>-0.04034305768661823</v>
+      </c>
+      <c r="H10">
+        <v>0.04678588218698219</v>
+      </c>
+      <c r="I10">
+        <v>-0.06034807282782622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.06942065054740476</v>
+        <v>0.07451644582686133</v>
       </c>
       <c r="C11">
-        <v>0.03749641307525638</v>
+        <v>0.04413496494010056</v>
       </c>
       <c r="D11">
-        <v>-0.05897931971763615</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04721217431060157</v>
+      </c>
+      <c r="E11">
+        <v>-0.005478382175314479</v>
+      </c>
+      <c r="F11">
+        <v>-0.04325277664070056</v>
+      </c>
+      <c r="G11">
+        <v>0.05340538081164044</v>
+      </c>
+      <c r="H11">
+        <v>-0.0461627986230251</v>
+      </c>
+      <c r="I11">
+        <v>0.0645055804186208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.06526000337533748</v>
+        <v>0.07054583685332809</v>
       </c>
       <c r="C12">
-        <v>0.04868864974437354</v>
+        <v>0.0315575384916543</v>
       </c>
       <c r="D12">
-        <v>-0.04633482474623898</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05053554957280181</v>
+      </c>
+      <c r="E12">
+        <v>-0.01257243127017479</v>
+      </c>
+      <c r="F12">
+        <v>-0.02961848708568728</v>
+      </c>
+      <c r="G12">
+        <v>0.02807552765033892</v>
+      </c>
+      <c r="H12">
+        <v>-0.01984303678434991</v>
+      </c>
+      <c r="I12">
+        <v>0.08526921621052934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06744147050923281</v>
+        <v>0.06549885855430948</v>
       </c>
       <c r="C13">
-        <v>0.05067991046697197</v>
+        <v>0.02885717354119897</v>
       </c>
       <c r="D13">
-        <v>-0.0570562511065377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04820513381902435</v>
+      </c>
+      <c r="E13">
+        <v>-0.0494576180801118</v>
+      </c>
+      <c r="F13">
+        <v>-0.02939174385223211</v>
+      </c>
+      <c r="G13">
+        <v>0.007673377797846146</v>
+      </c>
+      <c r="H13">
+        <v>-0.03559546198121057</v>
+      </c>
+      <c r="I13">
+        <v>0.09515255298414318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02894643851004647</v>
+        <v>0.03984745210666805</v>
       </c>
       <c r="C14">
-        <v>0.02951567729529232</v>
+        <v>0.0005255014649234477</v>
       </c>
       <c r="D14">
-        <v>-0.004794093212826966</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03338352997283893</v>
+      </c>
+      <c r="E14">
+        <v>-0.01513484873263219</v>
+      </c>
+      <c r="F14">
+        <v>-0.02308091795205568</v>
+      </c>
+      <c r="G14">
+        <v>0.02775837533158393</v>
+      </c>
+      <c r="H14">
+        <v>-0.0663212562781066</v>
+      </c>
+      <c r="I14">
+        <v>0.05515349347857631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.04716007690459668</v>
+        <v>0.04157296595294072</v>
       </c>
       <c r="C15">
-        <v>0.01217226282697975</v>
+        <v>0.01650956074487976</v>
       </c>
       <c r="D15">
-        <v>-0.02519334590184324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.01006846921547978</v>
+      </c>
+      <c r="E15">
+        <v>-0.03670406817463938</v>
+      </c>
+      <c r="F15">
+        <v>-0.001394975446725003</v>
+      </c>
+      <c r="G15">
+        <v>0.02600926256120617</v>
+      </c>
+      <c r="H15">
+        <v>-0.02136523677696201</v>
+      </c>
+      <c r="I15">
+        <v>0.02815558433869831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.05908710423296154</v>
+        <v>0.071559981356294</v>
       </c>
       <c r="C16">
-        <v>0.04129093653595234</v>
+        <v>0.04294793995330206</v>
       </c>
       <c r="D16">
-        <v>-0.0616122872766345</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.05640447376330045</v>
+      </c>
+      <c r="E16">
+        <v>-0.01359991691674257</v>
+      </c>
+      <c r="F16">
+        <v>-0.03426134367877329</v>
+      </c>
+      <c r="G16">
+        <v>0.02812338293187951</v>
+      </c>
+      <c r="H16">
+        <v>-0.03035998418158019</v>
+      </c>
+      <c r="I16">
+        <v>0.04051540359954053</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1213,25 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1242,228 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.06421786213679237</v>
+        <v>0.06218238374372895</v>
       </c>
       <c r="C20">
-        <v>0.02294113031617305</v>
+        <v>0.03599650384591927</v>
       </c>
       <c r="D20">
-        <v>-0.05627137989600151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.02677221222716107</v>
+      </c>
+      <c r="E20">
+        <v>-0.001531597245266162</v>
+      </c>
+      <c r="F20">
+        <v>-0.03115982664923549</v>
+      </c>
+      <c r="G20">
+        <v>0.01783539276838226</v>
+      </c>
+      <c r="H20">
+        <v>-0.04367637142237303</v>
+      </c>
+      <c r="I20">
+        <v>0.1009254099719494</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03574292284970242</v>
+        <v>0.03099967499933553</v>
       </c>
       <c r="C21">
-        <v>0.008804248388164808</v>
+        <v>0.01682577323939751</v>
       </c>
       <c r="D21">
-        <v>-0.009054127320138019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.008290563343400798</v>
+      </c>
+      <c r="E21">
+        <v>-0.03750457175798693</v>
+      </c>
+      <c r="F21">
+        <v>1.651917156925934e-05</v>
+      </c>
+      <c r="G21">
+        <v>0.002130903296338273</v>
+      </c>
+      <c r="H21">
+        <v>0.05380958700960885</v>
+      </c>
+      <c r="I21">
+        <v>0.03060491417329514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.111054895462762</v>
+        <v>0.09533529991932592</v>
       </c>
       <c r="C22">
-        <v>0.02972016821923836</v>
+        <v>0.05021321408621186</v>
       </c>
       <c r="D22">
-        <v>-0.08961875390374081</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.01379366708647568</v>
+      </c>
+      <c r="E22">
+        <v>-0.5455242590056171</v>
+      </c>
+      <c r="F22">
+        <v>-0.09137766253367591</v>
+      </c>
+      <c r="G22">
+        <v>-0.2772042029342397</v>
+      </c>
+      <c r="H22">
+        <v>0.1323712292190738</v>
+      </c>
+      <c r="I22">
+        <v>-0.2334125077861795</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.1117569922242884</v>
+        <v>0.09616074532467542</v>
       </c>
       <c r="C23">
-        <v>0.03071732368389549</v>
+        <v>0.05043218485946176</v>
       </c>
       <c r="D23">
-        <v>-0.08970785758322129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.01498405214748475</v>
+      </c>
+      <c r="E23">
+        <v>-0.5487764566472542</v>
+      </c>
+      <c r="F23">
+        <v>-0.09331560301226734</v>
+      </c>
+      <c r="G23">
+        <v>-0.2716620572798987</v>
+      </c>
+      <c r="H23">
+        <v>0.1319420902636752</v>
+      </c>
+      <c r="I23">
+        <v>-0.2356311214067243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.07690670524502237</v>
+        <v>0.08124744094570792</v>
       </c>
       <c r="C24">
-        <v>0.04659891138880835</v>
+        <v>0.0409533647125452</v>
       </c>
       <c r="D24">
-        <v>-0.06293984557115338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05395523592832443</v>
+      </c>
+      <c r="E24">
+        <v>-0.01741448353020207</v>
+      </c>
+      <c r="F24">
+        <v>-0.04330914309509064</v>
+      </c>
+      <c r="G24">
+        <v>0.04428267042454457</v>
+      </c>
+      <c r="H24">
+        <v>-0.02082556342251305</v>
+      </c>
+      <c r="I24">
+        <v>0.06132072702432015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.07466017741970028</v>
+        <v>0.0765692463099437</v>
       </c>
       <c r="C25">
-        <v>0.05360580450938741</v>
+        <v>0.03328322704761237</v>
       </c>
       <c r="D25">
-        <v>-0.05957263956626575</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05705112596734794</v>
+      </c>
+      <c r="E25">
+        <v>-0.02550694403571929</v>
+      </c>
+      <c r="F25">
+        <v>-0.03783644816958594</v>
+      </c>
+      <c r="G25">
+        <v>0.04618561198425573</v>
+      </c>
+      <c r="H25">
+        <v>-0.02976023181371618</v>
+      </c>
+      <c r="I25">
+        <v>0.07326767300840265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.0457735182592361</v>
+        <v>0.04470286852092381</v>
       </c>
       <c r="C26">
-        <v>0.006612351766450087</v>
+        <v>0.01861247254111721</v>
       </c>
       <c r="D26">
-        <v>-0.01285249180276297</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.00265359838741007</v>
+      </c>
+      <c r="E26">
+        <v>-0.03702047826366001</v>
+      </c>
+      <c r="F26">
+        <v>-0.02997530774476747</v>
+      </c>
+      <c r="G26">
+        <v>0.01707706524974569</v>
+      </c>
+      <c r="H26">
+        <v>-0.04429825753935738</v>
+      </c>
+      <c r="I26">
+        <v>0.009352938340361414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.04437477950808241</v>
+        <v>0.07538605568631394</v>
       </c>
       <c r="C28">
-        <v>0.0609132163165972</v>
+        <v>-0.2922989877697</v>
       </c>
       <c r="D28">
-        <v>0.2846214897299789</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.05076292485093353</v>
+      </c>
+      <c r="E28">
+        <v>-0.006535366955107149</v>
+      </c>
+      <c r="F28">
+        <v>-0.03382211983196839</v>
+      </c>
+      <c r="G28">
+        <v>0.02940821371242396</v>
+      </c>
+      <c r="H28">
+        <v>0.03689703869799352</v>
+      </c>
+      <c r="I28">
+        <v>-0.01612573885389095</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.05111050368444762</v>
+        <v>0.05338271062057661</v>
       </c>
       <c r="C29">
-        <v>0.04540908600281082</v>
+        <v>-0.002943406578216176</v>
       </c>
       <c r="D29">
-        <v>0.0008337560236984185</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03791568105219933</v>
+      </c>
+      <c r="E29">
+        <v>-0.03211500622225238</v>
+      </c>
+      <c r="F29">
+        <v>-0.03670121797760351</v>
+      </c>
+      <c r="G29">
+        <v>0.01477607760010917</v>
+      </c>
+      <c r="H29">
+        <v>-0.08882103294852617</v>
+      </c>
+      <c r="I29">
+        <v>0.04432049272392013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1371651013449321</v>
+        <v>0.1281090571435295</v>
       </c>
       <c r="C30">
-        <v>0.07947853519341873</v>
+        <v>0.04561472179201482</v>
       </c>
       <c r="D30">
-        <v>-0.1009958875861357</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.0784041754090474</v>
+      </c>
+      <c r="E30">
+        <v>-0.0619086236062712</v>
+      </c>
+      <c r="F30">
+        <v>-0.07138398336883978</v>
+      </c>
+      <c r="G30">
+        <v>0.05042037974240571</v>
+      </c>
+      <c r="H30">
+        <v>0.04917344689120279</v>
+      </c>
+      <c r="I30">
+        <v>0.311290846105573</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04968003586421801</v>
+        <v>0.04594962027575509</v>
       </c>
       <c r="C31">
-        <v>0.02792625024898907</v>
+        <v>0.03047485993333975</v>
       </c>
       <c r="D31">
-        <v>-0.02445900173382932</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02840881077637555</v>
+      </c>
+      <c r="E31">
+        <v>-0.0216625694923232</v>
+      </c>
+      <c r="F31">
+        <v>-0.01394734364364494</v>
+      </c>
+      <c r="G31">
+        <v>-0.00694897251348298</v>
+      </c>
+      <c r="H31">
+        <v>-0.06496843517217685</v>
+      </c>
+      <c r="I31">
+        <v>0.03019792143247545</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.0378792659517005</v>
+        <v>0.04387154287355239</v>
       </c>
       <c r="C32">
-        <v>0.01372003084097145</v>
+        <v>-0.001516134994514544</v>
       </c>
       <c r="D32">
-        <v>-0.02543084748901393</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01343950945800896</v>
+      </c>
+      <c r="E32">
+        <v>-0.07322849096202756</v>
+      </c>
+      <c r="F32">
+        <v>0.0008266268775680978</v>
+      </c>
+      <c r="G32">
+        <v>0.02307115845819123</v>
+      </c>
+      <c r="H32">
+        <v>0.01380972834489269</v>
+      </c>
+      <c r="I32">
+        <v>-0.02382972804718765</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.0922726447398397</v>
+        <v>0.09724156070490907</v>
       </c>
       <c r="C33">
-        <v>0.04821258538366871</v>
+        <v>0.03568598960502719</v>
       </c>
       <c r="D33">
-        <v>-0.04489112187373753</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04617793941073065</v>
+      </c>
+      <c r="E33">
+        <v>-0.02620074082732805</v>
+      </c>
+      <c r="F33">
+        <v>-0.009780260181056984</v>
+      </c>
+      <c r="G33">
+        <v>0.001742025263728897</v>
+      </c>
+      <c r="H33">
+        <v>-0.0515828782524194</v>
+      </c>
+      <c r="I33">
+        <v>0.07261861836688872</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.05985256132205449</v>
+        <v>0.06816795290033166</v>
       </c>
       <c r="C34">
-        <v>0.02370063618825377</v>
+        <v>0.03683212763300584</v>
       </c>
       <c r="D34">
-        <v>-0.05545457050894057</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03431356807220799</v>
+      </c>
+      <c r="E34">
+        <v>-0.01935356676482514</v>
+      </c>
+      <c r="F34">
+        <v>-0.02981021089562663</v>
+      </c>
+      <c r="G34">
+        <v>0.02748469349541759</v>
+      </c>
+      <c r="H34">
+        <v>-0.03809787246534081</v>
+      </c>
+      <c r="I34">
+        <v>0.05098178462860914</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.03627848860339247</v>
+        <v>0.03609609830952341</v>
       </c>
       <c r="C35">
-        <v>0.01549031392581713</v>
+        <v>0.01364497257795136</v>
       </c>
       <c r="D35">
-        <v>-0.01651350392511884</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01749286152641652</v>
+      </c>
+      <c r="E35">
+        <v>-0.01682477426944194</v>
+      </c>
+      <c r="F35">
+        <v>0.01034562212983063</v>
+      </c>
+      <c r="G35">
+        <v>0.001873832883988892</v>
+      </c>
+      <c r="H35">
+        <v>-0.03472531189048866</v>
+      </c>
+      <c r="I35">
+        <v>0.04889057693459899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.0307063961774373</v>
+        <v>0.0306680698301687</v>
       </c>
       <c r="C36">
-        <v>0.01519358235784628</v>
+        <v>0.01161388365565275</v>
       </c>
       <c r="D36">
-        <v>-0.01984000813160166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01429737446548793</v>
+      </c>
+      <c r="E36">
+        <v>-0.03096161944325916</v>
+      </c>
+      <c r="F36">
+        <v>-0.03759145015644075</v>
+      </c>
+      <c r="G36">
+        <v>0.01605852429753127</v>
+      </c>
+      <c r="H36">
+        <v>-0.03632133277162496</v>
+      </c>
+      <c r="I36">
+        <v>0.06316841606437387</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.06991414776527234</v>
+        <v>0.05951870521119541</v>
       </c>
       <c r="C38">
-        <v>0.004826999512732527</v>
+        <v>0.02631018180577186</v>
       </c>
       <c r="D38">
-        <v>0.001212124186440273</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.004748338052296381</v>
+      </c>
+      <c r="E38">
+        <v>-0.03652868253148826</v>
+      </c>
+      <c r="F38">
+        <v>-0.007791187620670127</v>
+      </c>
+      <c r="G38">
+        <v>-0.008430252710466301</v>
+      </c>
+      <c r="H38">
+        <v>-0.03936549107289628</v>
+      </c>
+      <c r="I38">
+        <v>0.002870529207404201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.09007899414439365</v>
+        <v>0.09816862254209456</v>
       </c>
       <c r="C39">
-        <v>0.05609540922152225</v>
+        <v>0.03156800004781245</v>
       </c>
       <c r="D39">
-        <v>-0.04617159259520197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06039606836554899</v>
+      </c>
+      <c r="E39">
+        <v>-0.01965540108798823</v>
+      </c>
+      <c r="F39">
+        <v>-0.02709838679866392</v>
+      </c>
+      <c r="G39">
+        <v>0.03437658893918241</v>
+      </c>
+      <c r="H39">
+        <v>-0.009371552193798828</v>
+      </c>
+      <c r="I39">
+        <v>0.06302920754304729</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07849478143644756</v>
+        <v>0.05698059031269444</v>
       </c>
       <c r="C40">
-        <v>0.02310297809488856</v>
+        <v>0.03838924866995851</v>
       </c>
       <c r="D40">
-        <v>-0.02062063660346998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.004607294421881868</v>
+      </c>
+      <c r="E40">
+        <v>-0.06616459350811821</v>
+      </c>
+      <c r="F40">
+        <v>0.002524531284724994</v>
+      </c>
+      <c r="G40">
+        <v>0.02528678554205878</v>
+      </c>
+      <c r="H40">
+        <v>0.0576332699706922</v>
+      </c>
+      <c r="I40">
+        <v>0.2380506802683848</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.0509924958373837</v>
+        <v>0.04532184723334264</v>
       </c>
       <c r="C41">
-        <v>0.009696287353273825</v>
+        <v>0.03532764361726048</v>
       </c>
       <c r="D41">
-        <v>-0.03375048179218895</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01177220305428659</v>
+      </c>
+      <c r="E41">
+        <v>0.007014724029420552</v>
+      </c>
+      <c r="F41">
+        <v>0.01253180686358033</v>
+      </c>
+      <c r="G41">
+        <v>0.01819611414630343</v>
+      </c>
+      <c r="H41">
+        <v>-0.04378984801239248</v>
+      </c>
+      <c r="I41">
+        <v>0.0286841500166846</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.05612296549706327</v>
+        <v>0.05958877417424</v>
       </c>
       <c r="C43">
-        <v>0.02853320240901227</v>
+        <v>0.02429525564223363</v>
       </c>
       <c r="D43">
-        <v>-0.01297033747198448</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02858246437119867</v>
+      </c>
+      <c r="E43">
+        <v>-0.01055784800627708</v>
+      </c>
+      <c r="F43">
+        <v>-0.01929902237078009</v>
+      </c>
+      <c r="G43">
+        <v>-0.007183303439941576</v>
+      </c>
+      <c r="H43">
+        <v>-0.0615056533728046</v>
+      </c>
+      <c r="I43">
+        <v>0.002764508930382988</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.09768293040693744</v>
+        <v>0.09779983869526343</v>
       </c>
       <c r="C44">
-        <v>0.0155381028461706</v>
+        <v>0.04607038185264958</v>
       </c>
       <c r="D44">
-        <v>-0.0516683997685909</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0221128542070842</v>
+      </c>
+      <c r="E44">
+        <v>-0.07536122265219293</v>
+      </c>
+      <c r="F44">
+        <v>-0.1138778837129659</v>
+      </c>
+      <c r="G44">
+        <v>0.05957328671828333</v>
+      </c>
+      <c r="H44">
+        <v>-0.03958006637187834</v>
+      </c>
+      <c r="I44">
+        <v>0.1216528237788786</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.0276772944047253</v>
+        <v>0.04166801281735347</v>
       </c>
       <c r="C46">
-        <v>0.02402571664888744</v>
+        <v>0.02234945906892467</v>
       </c>
       <c r="D46">
-        <v>-0.03192621671895254</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03756339387649286</v>
+      </c>
+      <c r="E46">
+        <v>-0.02739781623537666</v>
+      </c>
+      <c r="F46">
+        <v>-0.03136802574995669</v>
+      </c>
+      <c r="G46">
+        <v>-0.002511970757470742</v>
+      </c>
+      <c r="H46">
+        <v>-0.02204026066847407</v>
+      </c>
+      <c r="I46">
+        <v>0.01284838535194973</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.03866446428651338</v>
+        <v>0.04732270996254173</v>
       </c>
       <c r="C47">
-        <v>0.02574707074208057</v>
+        <v>-0.0005229374815995638</v>
       </c>
       <c r="D47">
-        <v>0.005807423391554052</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02147501421450619</v>
+      </c>
+      <c r="E47">
+        <v>-0.04085631888771745</v>
+      </c>
+      <c r="F47">
+        <v>-0.006536617970168346</v>
+      </c>
+      <c r="G47">
+        <v>-0.02848929390765366</v>
+      </c>
+      <c r="H47">
+        <v>-0.02416542497672101</v>
+      </c>
+      <c r="I47">
+        <v>0.03880333950180762</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.0428268249830099</v>
+        <v>0.04190252020840513</v>
       </c>
       <c r="C48">
-        <v>0.02381788055298851</v>
+        <v>0.01345945104009253</v>
       </c>
       <c r="D48">
-        <v>-0.02810546100803095</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01788174827336172</v>
+      </c>
+      <c r="E48">
+        <v>-0.0470969302010812</v>
+      </c>
+      <c r="F48">
+        <v>-0.01586824462179925</v>
+      </c>
+      <c r="G48">
+        <v>0.008294414492806768</v>
+      </c>
+      <c r="H48">
+        <v>-0.01252766513640844</v>
+      </c>
+      <c r="I48">
+        <v>0.04416757318701234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0.1615135673314499</v>
+        <v>0.2044039360047935</v>
       </c>
       <c r="C49">
-        <v>0.04286719493389079</v>
+        <v>0.009805602963950945</v>
       </c>
       <c r="D49">
-        <v>-0.02310467741497465</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.04774031229988813</v>
+      </c>
+      <c r="E49">
+        <v>0.2141373042714822</v>
+      </c>
+      <c r="F49">
+        <v>0.01554017948822082</v>
+      </c>
+      <c r="G49">
+        <v>-0.1411310279264256</v>
+      </c>
+      <c r="H49">
+        <v>0.2378138304810865</v>
+      </c>
+      <c r="I49">
+        <v>-0.08056252342597452</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04947175591001237</v>
+        <v>0.04982699618056319</v>
       </c>
       <c r="C50">
-        <v>0.03685692571091059</v>
+        <v>0.02573368952269545</v>
       </c>
       <c r="D50">
-        <v>-0.03627617164198804</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.04023240468742614</v>
+      </c>
+      <c r="E50">
+        <v>-0.02472060239562645</v>
+      </c>
+      <c r="F50">
+        <v>-0.009559276543284688</v>
+      </c>
+      <c r="G50">
+        <v>0.009106535092021511</v>
+      </c>
+      <c r="H50">
+        <v>-0.06773882310509673</v>
+      </c>
+      <c r="I50">
+        <v>0.02977573664055861</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.02653746368002166</v>
+        <v>0.03640758407943035</v>
       </c>
       <c r="C51">
-        <v>-0.002689503873838196</v>
+        <v>-0.004673927624495785</v>
       </c>
       <c r="D51">
-        <v>0.01097833780747984</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.008918134783285878</v>
+      </c>
+      <c r="E51">
+        <v>0.01118566072899271</v>
+      </c>
+      <c r="F51">
+        <v>-0.01247696350114231</v>
+      </c>
+      <c r="G51">
+        <v>-0.02233395666961066</v>
+      </c>
+      <c r="H51">
+        <v>0.02050854895417996</v>
+      </c>
+      <c r="I51">
+        <v>-0.01907779746754643</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1534852164472914</v>
+        <v>0.1583656568467783</v>
       </c>
       <c r="C53">
-        <v>0.08010474983709381</v>
+        <v>0.001660851571856373</v>
       </c>
       <c r="D53">
-        <v>0.01309591374587784</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05791101565904698</v>
+      </c>
+      <c r="E53">
+        <v>0.02723669450659904</v>
+      </c>
+      <c r="F53">
+        <v>0.006982557127409892</v>
+      </c>
+      <c r="G53">
+        <v>-0.002767332607473205</v>
+      </c>
+      <c r="H53">
+        <v>-0.2075837968431175</v>
+      </c>
+      <c r="I53">
+        <v>-0.09895304664611118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.06391010788404236</v>
+        <v>0.06286455423343761</v>
       </c>
       <c r="C54">
-        <v>0.02572351345880431</v>
+        <v>0.002723305906929362</v>
       </c>
       <c r="D54">
-        <v>-0.01725905283781875</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02096155238220076</v>
+      </c>
+      <c r="E54">
+        <v>-0.06419746510444892</v>
+      </c>
+      <c r="F54">
+        <v>-0.03723543002064102</v>
+      </c>
+      <c r="G54">
+        <v>0.05309057664871038</v>
+      </c>
+      <c r="H54">
+        <v>-0.03904284411277308</v>
+      </c>
+      <c r="I54">
+        <v>0.1187855521423513</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09974930231587545</v>
+        <v>0.1007647504094886</v>
       </c>
       <c r="C55">
-        <v>0.05081265031237977</v>
+        <v>0.01510727906633958</v>
       </c>
       <c r="D55">
-        <v>-0.01067663110328281</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04051168378229689</v>
+      </c>
+      <c r="E55">
+        <v>0.00377286426357545</v>
+      </c>
+      <c r="F55">
+        <v>-0.02180810210725497</v>
+      </c>
+      <c r="G55">
+        <v>0.02621774280017598</v>
+      </c>
+      <c r="H55">
+        <v>-0.1562289138554186</v>
+      </c>
+      <c r="I55">
+        <v>-0.02343883165902117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1421850226937484</v>
+        <v>0.1493106335755451</v>
       </c>
       <c r="C56">
-        <v>0.09536740083767856</v>
+        <v>0.01298522794441669</v>
       </c>
       <c r="D56">
-        <v>0.008230563747994682</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.07572446684902351</v>
+      </c>
+      <c r="E56">
+        <v>0.01475484882436969</v>
+      </c>
+      <c r="F56">
+        <v>-0.01087609567261333</v>
+      </c>
+      <c r="G56">
+        <v>0.023688564723717</v>
+      </c>
+      <c r="H56">
+        <v>-0.2019111428244413</v>
+      </c>
+      <c r="I56">
+        <v>-0.1146185721643556</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2344,1127 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.1227984729163731</v>
+        <v>0.0890662840272121</v>
       </c>
       <c r="C58">
-        <v>-0.03680842851749304</v>
+        <v>0.06020445414085678</v>
       </c>
       <c r="D58">
-        <v>-0.05520015640722595</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.05842886498558453</v>
+      </c>
+      <c r="E58">
+        <v>-0.109989634532117</v>
+      </c>
+      <c r="F58">
+        <v>-0.05839614940544767</v>
+      </c>
+      <c r="G58">
+        <v>-0.1123004250221106</v>
+      </c>
+      <c r="H58">
+        <v>0.1730196582096524</v>
+      </c>
+      <c r="I58">
+        <v>0.5361433030892686</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.125118547423092</v>
+        <v>0.1588823158362047</v>
       </c>
       <c r="C59">
-        <v>0.07836186778859579</v>
+        <v>-0.3595703510665877</v>
       </c>
       <c r="D59">
-        <v>0.4383785847127792</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.08275786687127365</v>
+      </c>
+      <c r="E59">
+        <v>0.002876827077746553</v>
+      </c>
+      <c r="F59">
+        <v>-0.004140589369905414</v>
+      </c>
+      <c r="G59">
+        <v>0.01452538523017631</v>
+      </c>
+      <c r="H59">
+        <v>-0.02308751231043315</v>
+      </c>
+      <c r="I59">
+        <v>-0.05063111388774062</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2101918540436696</v>
+        <v>0.2398005914643805</v>
       </c>
       <c r="C60">
-        <v>0.08716273076796385</v>
+        <v>0.0175341676707089</v>
       </c>
       <c r="D60">
-        <v>-0.002238399111888219</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.07444768698856365</v>
+      </c>
+      <c r="E60">
+        <v>0.1538670668409661</v>
+      </c>
+      <c r="F60">
+        <v>-0.00970611553862058</v>
+      </c>
+      <c r="G60">
+        <v>-0.006942003600525478</v>
+      </c>
+      <c r="H60">
+        <v>0.1494749731824199</v>
+      </c>
+      <c r="I60">
+        <v>-0.1193606036135124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.07816885421489926</v>
+        <v>0.08723313258525807</v>
       </c>
       <c r="C61">
-        <v>0.05068631746176324</v>
+        <v>0.02133360218141106</v>
       </c>
       <c r="D61">
-        <v>-0.02636908015024555</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.0526833622266637</v>
+      </c>
+      <c r="E61">
+        <v>-0.01181240132337698</v>
+      </c>
+      <c r="F61">
+        <v>-0.02861619932107208</v>
+      </c>
+      <c r="G61">
+        <v>0.0441651731730709</v>
+      </c>
+      <c r="H61">
+        <v>-0.06364805796772657</v>
+      </c>
+      <c r="I61">
+        <v>0.03246297602139939</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0.136484742852772</v>
+        <v>0.1416824883048727</v>
       </c>
       <c r="C62">
-        <v>0.05881145167228448</v>
+        <v>0.0263777343240307</v>
       </c>
       <c r="D62">
-        <v>0.006129951900690488</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04779370110450098</v>
+      </c>
+      <c r="E62">
+        <v>0.03957257955064648</v>
+      </c>
+      <c r="F62">
+        <v>0.03992624437873791</v>
+      </c>
+      <c r="G62">
+        <v>0.05168596307962912</v>
+      </c>
+      <c r="H62">
+        <v>-0.1989579150088265</v>
+      </c>
+      <c r="I62">
+        <v>-0.1116252331298291</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.05609809001998042</v>
+        <v>0.05180623942206811</v>
       </c>
       <c r="C63">
-        <v>0.01827692590845054</v>
+        <v>0.01704633032858186</v>
       </c>
       <c r="D63">
-        <v>-0.02789337991574983</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01807834424808581</v>
+      </c>
+      <c r="E63">
+        <v>-0.02598124294442532</v>
+      </c>
+      <c r="F63">
+        <v>-0.008140431584318262</v>
+      </c>
+      <c r="G63">
+        <v>0.05035575687826629</v>
+      </c>
+      <c r="H63">
+        <v>-0.03807906352243736</v>
+      </c>
+      <c r="I63">
+        <v>0.03691628429456012</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.1049269389703938</v>
+        <v>0.1115643084260108</v>
       </c>
       <c r="C64">
-        <v>0.03566025170291032</v>
+        <v>0.009519454594950993</v>
       </c>
       <c r="D64">
-        <v>-0.01098257487481257</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.0308648662050045</v>
+      </c>
+      <c r="E64">
+        <v>-0.03087043883694313</v>
+      </c>
+      <c r="F64">
+        <v>-0.06305388790029004</v>
+      </c>
+      <c r="G64">
+        <v>0.04629770315126924</v>
+      </c>
+      <c r="H64">
+        <v>-0.003612536856408737</v>
+      </c>
+      <c r="I64">
+        <v>0.04829982417216565</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.1235152335044496</v>
+        <v>0.1314142898277544</v>
       </c>
       <c r="C65">
-        <v>0.04465262586130556</v>
+        <v>-0.001435804586394115</v>
       </c>
       <c r="D65">
-        <v>-0.02997038908388169</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.03849734384155098</v>
+      </c>
+      <c r="E65">
+        <v>0.009958939181526653</v>
+      </c>
+      <c r="F65">
+        <v>-0.01773616140374825</v>
+      </c>
+      <c r="G65">
+        <v>0.08717208546794615</v>
+      </c>
+      <c r="H65">
+        <v>0.2006614236013837</v>
+      </c>
+      <c r="I65">
+        <v>0.0707341858216346</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.1481474547797081</v>
+        <v>0.1455381678230717</v>
       </c>
       <c r="C66">
-        <v>0.08178299554962812</v>
+        <v>0.07359151876327719</v>
       </c>
       <c r="D66">
-        <v>-0.08427635324811836</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.09066885825218711</v>
+      </c>
+      <c r="E66">
+        <v>0.001446553182937127</v>
+      </c>
+      <c r="F66">
+        <v>-0.01634086467999643</v>
+      </c>
+      <c r="G66">
+        <v>0.08111571743444657</v>
+      </c>
+      <c r="H66">
+        <v>-0.06452202161896417</v>
+      </c>
+      <c r="I66">
+        <v>0.1070780948859797</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.09702728809452826</v>
+        <v>0.09988329488743548</v>
       </c>
       <c r="C67">
-        <v>0.01176681739240913</v>
+        <v>0.03163060056396142</v>
       </c>
       <c r="D67">
-        <v>-0.001791014284857227</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.009072228522660432</v>
+      </c>
+      <c r="E67">
+        <v>-3.001248911890576e-05</v>
+      </c>
+      <c r="F67">
+        <v>-0.01382466808826975</v>
+      </c>
+      <c r="G67">
+        <v>-0.01699938210738705</v>
+      </c>
+      <c r="H67">
+        <v>-0.02931574323879857</v>
+      </c>
+      <c r="I67">
+        <v>-0.0309196435752037</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.04706669908209329</v>
+        <v>0.07334579532885652</v>
       </c>
       <c r="C68">
-        <v>0.04463291467959683</v>
+        <v>-0.2778525241354697</v>
       </c>
       <c r="D68">
-        <v>0.2564145474700923</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.05689106018538558</v>
+      </c>
+      <c r="E68">
+        <v>-0.03431461687022884</v>
+      </c>
+      <c r="F68">
+        <v>-0.02249521646121241</v>
+      </c>
+      <c r="G68">
+        <v>-0.003525438453891169</v>
+      </c>
+      <c r="H68">
+        <v>-0.01666085859769382</v>
+      </c>
+      <c r="I68">
+        <v>0.01814676189960516</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.0633288219138211</v>
+        <v>0.05671420872297202</v>
       </c>
       <c r="C69">
-        <v>0.02733613966843305</v>
+        <v>0.01461436956744836</v>
       </c>
       <c r="D69">
-        <v>-0.01587904076374487</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01550582584692638</v>
+      </c>
+      <c r="E69">
+        <v>-0.02829145018953381</v>
+      </c>
+      <c r="F69">
+        <v>0.008974586371437929</v>
+      </c>
+      <c r="G69">
+        <v>0.001209341016693662</v>
+      </c>
+      <c r="H69">
+        <v>-0.04166886885648774</v>
+      </c>
+      <c r="I69">
+        <v>0.009678407007911199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
-        <v>0.0120255196230297</v>
+        <v>0.03332184127556803</v>
       </c>
       <c r="C70">
-        <v>0.0009291233558405197</v>
+        <v>-0.003946907641182391</v>
       </c>
       <c r="D70">
-        <v>0.01117768327826151</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.002921553427948498</v>
+      </c>
+      <c r="E70">
+        <v>0.03088362550980782</v>
+      </c>
+      <c r="F70">
+        <v>0.006201184802592376</v>
+      </c>
+      <c r="G70">
+        <v>-0.009531523041687529</v>
+      </c>
+      <c r="H70">
+        <v>0.02511907163036223</v>
+      </c>
+      <c r="I70">
+        <v>0.008071883218342776</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.04506751088131688</v>
+        <v>0.07972519535257003</v>
       </c>
       <c r="C71">
-        <v>0.03896878570190499</v>
+        <v>-0.2979261876410685</v>
       </c>
       <c r="D71">
-        <v>0.2892897971898633</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.06369370293347407</v>
+      </c>
+      <c r="E71">
+        <v>-0.02214942097600654</v>
+      </c>
+      <c r="F71">
+        <v>-0.0450446977835337</v>
+      </c>
+      <c r="G71">
+        <v>0.004671200313315969</v>
+      </c>
+      <c r="H71">
+        <v>-0.01709773809131585</v>
+      </c>
+      <c r="I71">
+        <v>0.01477892763152996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1406371230854942</v>
+        <v>0.1371460934315384</v>
       </c>
       <c r="C72">
-        <v>0.0460659586134175</v>
+        <v>-0.003188513478302613</v>
       </c>
       <c r="D72">
-        <v>0.0282753488868106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01326945544107339</v>
+      </c>
+      <c r="E72">
+        <v>-0.005232769768137967</v>
+      </c>
+      <c r="F72">
+        <v>0.1665194094440955</v>
+      </c>
+      <c r="G72">
+        <v>0.1137361695388733</v>
+      </c>
+      <c r="H72">
+        <v>-0.006987305214665527</v>
+      </c>
+      <c r="I72">
+        <v>-0.002617955918408264</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2614489425608959</v>
+        <v>0.2619175514192659</v>
       </c>
       <c r="C73">
-        <v>0.07026335696688803</v>
+        <v>0.09212699680734529</v>
       </c>
       <c r="D73">
-        <v>-0.06391166841601088</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.05548928306707861</v>
+      </c>
+      <c r="E73">
+        <v>0.3387115494615808</v>
+      </c>
+      <c r="F73">
+        <v>0.01741099804104736</v>
+      </c>
+      <c r="G73">
+        <v>-0.2187912185154251</v>
+      </c>
+      <c r="H73">
+        <v>0.3211770077894768</v>
+      </c>
+      <c r="I73">
+        <v>-0.05625223825097957</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.08014037724267561</v>
+        <v>0.09016669122523352</v>
       </c>
       <c r="C74">
-        <v>0.07691828215816503</v>
+        <v>0.01452235555513297</v>
       </c>
       <c r="D74">
-        <v>-0.006081040590027341</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.07066538953229289</v>
+      </c>
+      <c r="E74">
+        <v>0.004054508057354163</v>
+      </c>
+      <c r="F74">
+        <v>-0.0001453653380553285</v>
+      </c>
+      <c r="G74">
+        <v>-0.02058507442960137</v>
+      </c>
+      <c r="H74">
+        <v>-0.1287097920891841</v>
+      </c>
+      <c r="I74">
+        <v>-0.01560803927674575</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.1095671716758702</v>
+        <v>0.1033611350650953</v>
       </c>
       <c r="C75">
-        <v>0.04488942983757409</v>
+        <v>0.02085459816936814</v>
       </c>
       <c r="D75">
-        <v>-0.004612833125491616</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02239511315114242</v>
+      </c>
+      <c r="E75">
+        <v>-0.002220428745310785</v>
+      </c>
+      <c r="F75">
+        <v>0.005971388516097905</v>
+      </c>
+      <c r="G75">
+        <v>-0.006826443225779877</v>
+      </c>
+      <c r="H75">
+        <v>-0.1167061105588768</v>
+      </c>
+      <c r="I75">
+        <v>-0.05291499059038152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1303530979295051</v>
+        <v>0.1318572960407703</v>
       </c>
       <c r="C76">
-        <v>0.08031613225787404</v>
+        <v>0.03448837283733732</v>
       </c>
       <c r="D76">
-        <v>-0.02406081254995414</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07697287207252247</v>
+      </c>
+      <c r="E76">
+        <v>-0.004449466425714683</v>
+      </c>
+      <c r="F76">
+        <v>-0.03271596092901557</v>
+      </c>
+      <c r="G76">
+        <v>0.02571956663930034</v>
+      </c>
+      <c r="H76">
+        <v>-0.2586895202035289</v>
+      </c>
+      <c r="I76">
+        <v>-0.1015111310730624</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1328349277559461</v>
+        <v>0.1016593130865365</v>
       </c>
       <c r="C77">
-        <v>-0.02671311453529424</v>
+        <v>0.05698013703581247</v>
       </c>
       <c r="D77">
-        <v>-0.06669677018815899</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.04976907466978567</v>
+      </c>
+      <c r="E77">
+        <v>-0.1222346302524816</v>
+      </c>
+      <c r="F77">
+        <v>-0.07536716756186905</v>
+      </c>
+      <c r="G77">
+        <v>0.7643164314823554</v>
+      </c>
+      <c r="H77">
+        <v>0.3049422862876553</v>
+      </c>
+      <c r="I77">
+        <v>-0.2959904503398283</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.112671394856654</v>
+        <v>0.1545756098306437</v>
       </c>
       <c r="C78">
-        <v>0.03483899724804445</v>
+        <v>0.04880710262653391</v>
       </c>
       <c r="D78">
-        <v>-0.07995873411501858</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06757948488425702</v>
+      </c>
+      <c r="E78">
+        <v>-0.09684630967236953</v>
+      </c>
+      <c r="F78">
+        <v>-0.0676519680365229</v>
+      </c>
+      <c r="G78">
+        <v>-0.003150425297189972</v>
+      </c>
+      <c r="H78">
+        <v>0.1456583029379991</v>
+      </c>
+      <c r="I78">
+        <v>0.03376152431054408</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.139264166302065</v>
+        <v>0.1419610291622681</v>
       </c>
       <c r="C79">
-        <v>0.05504761803510445</v>
+        <v>0.03252827956114548</v>
       </c>
       <c r="D79">
-        <v>-0.03013082397298392</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.04442930834495403</v>
+      </c>
+      <c r="E79">
+        <v>0.01824918561152464</v>
+      </c>
+      <c r="F79">
+        <v>-0.01207774881031722</v>
+      </c>
+      <c r="G79">
+        <v>0.02758753552274322</v>
+      </c>
+      <c r="H79">
+        <v>-0.1786786824966045</v>
+      </c>
+      <c r="I79">
+        <v>-0.07406568688353324</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.03622628922316092</v>
+        <v>0.04096664167448451</v>
       </c>
       <c r="C80">
-        <v>0.02106512205674414</v>
+        <v>0.004605798435389363</v>
       </c>
       <c r="D80">
-        <v>-0.02005486496170211</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.02314765112123393</v>
+      </c>
+      <c r="E80">
+        <v>0.05295018991064181</v>
+      </c>
+      <c r="F80">
+        <v>0.0005456892171457475</v>
+      </c>
+      <c r="G80">
+        <v>-0.005658199134418852</v>
+      </c>
+      <c r="H80">
+        <v>-0.02073851381914156</v>
+      </c>
+      <c r="I80">
+        <v>0.1183057985115827</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1340806597549627</v>
+        <v>0.1311057496896336</v>
       </c>
       <c r="C81">
-        <v>0.07232088236484978</v>
+        <v>0.01153162122051235</v>
       </c>
       <c r="D81">
-        <v>-0.008582859437725826</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.05028498899304081</v>
+      </c>
+      <c r="E81">
+        <v>0.001515741963324124</v>
+      </c>
+      <c r="F81">
+        <v>-0.01881999531360689</v>
+      </c>
+      <c r="G81">
+        <v>0.00874536961693574</v>
+      </c>
+      <c r="H81">
+        <v>-0.1567476875933596</v>
+      </c>
+      <c r="I81">
+        <v>-0.02435259162480395</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.1230477336226019</v>
+        <v>0.1223968047319115</v>
       </c>
       <c r="C82">
-        <v>0.05946216840827451</v>
+        <v>0.01858970521379518</v>
       </c>
       <c r="D82">
-        <v>-0.01411693606875019</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.04751690023023974</v>
+      </c>
+      <c r="E82">
+        <v>0.0165387713057705</v>
+      </c>
+      <c r="F82">
+        <v>-0.02667685763723613</v>
+      </c>
+      <c r="G82">
+        <v>-0.004794077198138089</v>
+      </c>
+      <c r="H82">
+        <v>-0.2549150869902226</v>
+      </c>
+      <c r="I82">
+        <v>-0.1011497379823621</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.07472510861442751</v>
+        <v>0.08651101794158096</v>
       </c>
       <c r="C83">
-        <v>-0.03440890121445687</v>
+        <v>0.02711740306101709</v>
       </c>
       <c r="D83">
-        <v>0.0143400946145692</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03770730747280837</v>
+      </c>
+      <c r="E83">
+        <v>0.002534584481129708</v>
+      </c>
+      <c r="F83">
+        <v>-0.03692525424261016</v>
+      </c>
+      <c r="G83">
+        <v>-0.06690731675104593</v>
+      </c>
+      <c r="H83">
+        <v>0.006496747710189574</v>
+      </c>
+      <c r="I83">
+        <v>0.08826768644208785</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0367524578893112</v>
+        <v>0.03312497583597967</v>
       </c>
       <c r="C84">
-        <v>0.03286393208020699</v>
+        <v>0.03416925827267312</v>
       </c>
       <c r="D84">
-        <v>-0.03285415337734898</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03443355887323595</v>
+      </c>
+      <c r="E84">
+        <v>-0.03151524076381189</v>
+      </c>
+      <c r="F84">
+        <v>0.03932961383746454</v>
+      </c>
+      <c r="G84">
+        <v>-0.04014096028949102</v>
+      </c>
+      <c r="H84">
+        <v>-0.04116279463242416</v>
+      </c>
+      <c r="I84">
+        <v>0.09612114704261039</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1124441597579778</v>
+        <v>0.1201599562391888</v>
       </c>
       <c r="C85">
-        <v>0.03114022599199474</v>
+        <v>0.03019241556300886</v>
       </c>
       <c r="D85">
-        <v>-0.03443261142516486</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.02915433041535281</v>
+      </c>
+      <c r="E85">
+        <v>0.008286028358829285</v>
+      </c>
+      <c r="F85">
+        <v>-0.04354161903235439</v>
+      </c>
+      <c r="G85">
+        <v>0.00829237970865824</v>
+      </c>
+      <c r="H85">
+        <v>-0.1591401071992021</v>
+      </c>
+      <c r="I85">
+        <v>-0.05943984345073983</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.05917790919703547</v>
+        <v>0.05721362280522287</v>
       </c>
       <c r="C86">
-        <v>0.01930000591360116</v>
+        <v>0.03124408312545569</v>
       </c>
       <c r="D86">
-        <v>-0.06667528050554686</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01832119942514462</v>
+      </c>
+      <c r="E86">
+        <v>-0.01480595946982232</v>
+      </c>
+      <c r="F86">
+        <v>-0.02378984922114923</v>
+      </c>
+      <c r="G86">
+        <v>-0.01050887630062515</v>
+      </c>
+      <c r="H86">
+        <v>0.06768240903451234</v>
+      </c>
+      <c r="I86">
+        <v>-0.03503804719610774</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.1246514131338267</v>
+        <v>0.1290444395494827</v>
       </c>
       <c r="C87">
-        <v>0.06827747323384646</v>
+        <v>0.06103771715963631</v>
       </c>
       <c r="D87">
-        <v>-0.0906246596590185</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.06993019871259974</v>
+      </c>
+      <c r="E87">
+        <v>-0.05618006361167496</v>
+      </c>
+      <c r="F87">
+        <v>-0.03618870398098518</v>
+      </c>
+      <c r="G87">
+        <v>0.1614926718592718</v>
+      </c>
+      <c r="H87">
+        <v>0.1044509578731244</v>
+      </c>
+      <c r="I87">
+        <v>-0.002452238223275928</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05795526168700437</v>
+        <v>0.0633830169388918</v>
       </c>
       <c r="C88">
-        <v>0.03020860136414814</v>
+        <v>0.03150017335308148</v>
       </c>
       <c r="D88">
-        <v>-0.02705265323700909</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03750581494051141</v>
+      </c>
+      <c r="E88">
+        <v>0.007298460402045548</v>
+      </c>
+      <c r="F88">
+        <v>-0.02180300294549753</v>
+      </c>
+      <c r="G88">
+        <v>0.01411985307222611</v>
+      </c>
+      <c r="H88">
+        <v>-0.04314822908284709</v>
+      </c>
+      <c r="I88">
+        <v>0.03111752496676521</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.07308392133293196</v>
+        <v>0.1254665938685665</v>
       </c>
       <c r="C89">
-        <v>0.07701516938899816</v>
+        <v>-0.3765248046350142</v>
       </c>
       <c r="D89">
-        <v>0.3191180419288421</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.05325030903850655</v>
+      </c>
+      <c r="E89">
+        <v>-0.02286527505935667</v>
+      </c>
+      <c r="F89">
+        <v>-0.08647137916561559</v>
+      </c>
+      <c r="G89">
+        <v>-0.01676096012439737</v>
+      </c>
+      <c r="H89">
+        <v>-0.008972060260665772</v>
+      </c>
+      <c r="I89">
+        <v>0.07374204712632162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.06266262331475968</v>
+        <v>0.09131453051724878</v>
       </c>
       <c r="C90">
-        <v>0.04066864244836732</v>
+        <v>-0.2789219058137815</v>
       </c>
       <c r="D90">
-        <v>0.2840522360953223</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.06380279430311993</v>
+      </c>
+      <c r="E90">
+        <v>-0.01779028250886666</v>
+      </c>
+      <c r="F90">
+        <v>-0.03824264853780502</v>
+      </c>
+      <c r="G90">
+        <v>0.01110647224760125</v>
+      </c>
+      <c r="H90">
+        <v>0.02073261148657225</v>
+      </c>
+      <c r="I90">
+        <v>0.1002008007215714</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.09462175121101572</v>
+        <v>0.08963139317632846</v>
       </c>
       <c r="C91">
-        <v>0.04996601531628781</v>
+        <v>0.0216963276224538</v>
       </c>
       <c r="D91">
-        <v>-0.007414936691738297</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03324910918988321</v>
+      </c>
+      <c r="E91">
+        <v>-0.001723085127142759</v>
+      </c>
+      <c r="F91">
+        <v>-0.003687745780516546</v>
+      </c>
+      <c r="G91">
+        <v>-0.01397717082029322</v>
+      </c>
+      <c r="H91">
+        <v>-0.08461350829777944</v>
+      </c>
+      <c r="I91">
+        <v>-0.04151212066875919</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.05801774879611207</v>
+        <v>0.09270025403794217</v>
       </c>
       <c r="C92">
-        <v>0.06227216200715689</v>
+        <v>-0.3318409240559638</v>
       </c>
       <c r="D92">
-        <v>0.3285308254679568</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.06171399447890193</v>
+      </c>
+      <c r="E92">
+        <v>-0.02165073240074626</v>
+      </c>
+      <c r="F92">
+        <v>-0.0443981271425597</v>
+      </c>
+      <c r="G92">
+        <v>0.003911800740043888</v>
+      </c>
+      <c r="H92">
+        <v>-0.01788659490478302</v>
+      </c>
+      <c r="I92">
+        <v>0.02470895124685788</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.05229645794926923</v>
+        <v>0.09139329961986911</v>
       </c>
       <c r="C93">
-        <v>0.05262549919577172</v>
+        <v>-0.3160065379603361</v>
       </c>
       <c r="D93">
-        <v>0.3069341602674781</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.05834518860024478</v>
+      </c>
+      <c r="E93">
+        <v>0.001699738266094993</v>
+      </c>
+      <c r="F93">
+        <v>-0.02884398506417109</v>
+      </c>
+      <c r="G93">
+        <v>0.007537691904814717</v>
+      </c>
+      <c r="H93">
+        <v>0.005683214509903251</v>
+      </c>
+      <c r="I93">
+        <v>0.01050592206646874</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.1249048113273687</v>
+        <v>0.1242082630291315</v>
       </c>
       <c r="C94">
-        <v>0.02940370484684657</v>
+        <v>0.04175474226843095</v>
       </c>
       <c r="D94">
-        <v>-0.05184763469439772</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02141736849555774</v>
+      </c>
+      <c r="E94">
+        <v>-0.00154128426228806</v>
+      </c>
+      <c r="F94">
+        <v>-0.01865854157811379</v>
+      </c>
+      <c r="G94">
+        <v>-0.05495361037204408</v>
+      </c>
+      <c r="H94">
+        <v>-0.1091396364730913</v>
+      </c>
+      <c r="I94">
+        <v>-0.04709677555557336</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1260694115626774</v>
+        <v>0.1371547242030146</v>
       </c>
       <c r="C95">
-        <v>0.02133669600754938</v>
+        <v>0.05920303231105706</v>
       </c>
       <c r="D95">
-        <v>-0.07713421411095853</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.02430520112374646</v>
+      </c>
+      <c r="E95">
+        <v>-0.01334595221431488</v>
+      </c>
+      <c r="F95">
+        <v>-0.04807859818324021</v>
+      </c>
+      <c r="G95">
+        <v>0.0430044477897539</v>
+      </c>
+      <c r="H95">
+        <v>0.1283694910485877</v>
+      </c>
+      <c r="I95">
+        <v>0.04297697887436071</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3475,112 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0.2326897818299618</v>
+        <v>0.1843327485661886</v>
       </c>
       <c r="C97">
-        <v>0.0727248244033655</v>
+        <v>-0.03306926160801447</v>
       </c>
       <c r="D97">
-        <v>0.1149380006995265</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.03869773667626863</v>
+      </c>
+      <c r="E97">
+        <v>-0.208436560537713</v>
+      </c>
+      <c r="F97">
+        <v>0.9146077394245575</v>
+      </c>
+      <c r="G97">
+        <v>0.05383498840870485</v>
+      </c>
+      <c r="H97">
+        <v>0.01095570901842333</v>
+      </c>
+      <c r="I97">
+        <v>0.09130971478637892</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2549753572559973</v>
+        <v>0.273972564962318</v>
       </c>
       <c r="C98">
-        <v>0.07228267618596769</v>
+        <v>0.05511617403120729</v>
       </c>
       <c r="D98">
-        <v>-0.03065595300154403</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05749078791927306</v>
+      </c>
+      <c r="E98">
+        <v>0.2680057111186545</v>
+      </c>
+      <c r="F98">
+        <v>0.07530605766300284</v>
+      </c>
+      <c r="G98">
+        <v>-0.260295557437378</v>
+      </c>
+      <c r="H98">
+        <v>0.1505188339720892</v>
+      </c>
+      <c r="I98">
+        <v>-0.2089880099323238</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
-        <v>0.3765086232590319</v>
+        <v>0.2353570978365238</v>
       </c>
       <c r="C99">
-        <v>-0.9029898648093004</v>
+        <v>0.2600409425323283</v>
       </c>
       <c r="D99">
-        <v>0.07641324809554015</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.9091328774418059</v>
+      </c>
+      <c r="E99">
+        <v>0.03325928995593595</v>
+      </c>
+      <c r="F99">
+        <v>-0.07373309114360012</v>
+      </c>
+      <c r="G99">
+        <v>-0.01404570663115</v>
+      </c>
+      <c r="H99">
+        <v>-0.1060633466912251</v>
+      </c>
+      <c r="I99">
+        <v>0.006351482791724662</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3591,54 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.05119080096111391</v>
+        <v>0.05346397966634125</v>
       </c>
       <c r="C101">
-        <v>0.04577296064088224</v>
+        <v>-0.002753406907864</v>
       </c>
       <c r="D101">
-        <v>0.000606665448725938</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03842398548155812</v>
+      </c>
+      <c r="E101">
+        <v>-0.03174786919578881</v>
+      </c>
+      <c r="F101">
+        <v>-0.03664744438556247</v>
+      </c>
+      <c r="G101">
+        <v>0.01354579707315133</v>
+      </c>
+      <c r="H101">
+        <v>-0.08750469011506769</v>
+      </c>
+      <c r="I101">
+        <v>0.04442187720354799</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3649,25 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
